--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicode/PycharmProjects/scheduler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicode/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECDDA81-7129-BE44-AABB-52BCE4847185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F79DC-9401-094F-8C5B-16C5F86022C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="3500" windowWidth="27640" windowHeight="16860" xr2:uid="{5697A1AE-C8C0-A942-BF7A-C569DAA59A2C}"/>
+    <workbookView xWindow="7520" yWindow="7320" windowWidth="27640" windowHeight="16860" xr2:uid="{5697A1AE-C8C0-A942-BF7A-C569DAA59A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,30 +35,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
-  <si>
-    <t>Elektrotexnika</t>
-  </si>
-  <si>
-    <t>Axborot soati</t>
-  </si>
-  <si>
-    <t>Fizika</t>
-  </si>
-  <si>
-    <t>Nazariy mexanika</t>
-  </si>
-  <si>
-    <t>Nazariy mexanika / Soxaning texnologik o'lchashlari</t>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>Matlab asoslari</t>
-  </si>
-  <si>
-    <t>Soxaning texnologik o'lchashlari</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>Elektrotexnika | 9-302</t>
+  </si>
+  <si>
+    <t>Axborot soati | 3-506</t>
+  </si>
+  <si>
+    <t>Fizika (Leksiya) | 5G</t>
+  </si>
+  <si>
+    <t>Fizika (Praktika) | 3-309</t>
+  </si>
+  <si>
+    <t>Nazariy mexanika / Soxaning texnologik o'lchashlari | 3-506</t>
+  </si>
+  <si>
+    <t>Nazariy mexanika (Leksiya) | 6G</t>
+  </si>
+  <si>
+    <t>Matematika (Leksiya) | 5G</t>
+  </si>
+  <si>
+    <t>Matematika (Praktika) | 3-506</t>
+  </si>
+  <si>
+    <t>Elektrotexnika (Leksiya) | 7G</t>
+  </si>
+  <si>
+    <t>Matlab asoslari | 3-204</t>
+  </si>
+  <si>
+    <t>Soxaning texnologik o'lchashlari / Fizika | 3-506</t>
+  </si>
+  <si>
+    <t>Soxaning texnologik o'lchashlari | 3-506</t>
   </si>
 </sst>
 </file>
@@ -421,7 +433,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -464,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -478,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -489,10 +501,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
